--- a/Trabalho2/Gráficos.xlsx
+++ b/Trabalho2/Gráficos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfre\Desktop\Projetos\SP\Trabalho2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64FD501D-451A-4FD0-9998-D20FEDEC8657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194136F7-2B0C-4550-AD9F-77B0BD1C300C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7FEF3762-E478-4736-8D21-DC14B09D5E70}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Tempo</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Bytes</t>
+  </si>
+  <si>
+    <t>Interseção</t>
   </si>
 </sst>
 </file>
@@ -167,10 +170,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -370,6 +373,56 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14519006999125109"/>
+                  <c:y val="4.492848840147572E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Folha1!$C$2:$G$2</c:f>
@@ -401,19 +454,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.14099999999999999</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.23599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34300000000000003</c:v>
+                  <c:v>0.34499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46500000000000002</c:v>
+                  <c:v>0.46100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56899999999999995</c:v>
+                  <c:v>0.56699999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,6 +910,70 @@
                 <c:manualLayout>
                   <c:x val="3.4298993875765529E-2"/>
                   <c:y val="0.2770676582093905"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14067410323709537"/>
+                  <c:y val="5.1293195610171399E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1453,6 +1570,56 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13702944970861694"/>
+                  <c:y val="3.36838864918622E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Folha1!$C$2:$G$2</c:f>
@@ -2002,6 +2169,56 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1601185476815398"/>
+                  <c:y val="1.3561362738942149E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Folha1!$C$8:$G$8</c:f>
@@ -2505,6 +2722,56 @@
                 <c:manualLayout>
                   <c:x val="3.470166229221347E-2"/>
                   <c:y val="0.20004666083406242"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13856299212598425"/>
+                  <c:y val="2.8439192030948655E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3079,6 +3346,56 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14689632545931769"/>
+                  <c:y val="3.3127462419844544E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Folha1!$C$8:$G$8</c:f>
@@ -3600,6 +3917,56 @@
                 <c:manualLayout>
                   <c:x val="3.470166229221347E-2"/>
                   <c:y val="0.20004666083406242"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11488232720909887"/>
+                  <c:y val="-1.0338108293271524E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4196,6 +4563,56 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14122965879265093"/>
+                  <c:y val="-5.2082363677224207E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Folha1!$C$14:$G$14</c:f>
@@ -4728,6 +5145,56 @@
                 <c:manualLayout>
                   <c:x val="3.470166229221347E-2"/>
                   <c:y val="0.20004666083406242"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15511854768153982"/>
+                  <c:y val="-3.303994226541544E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -10731,14 +11198,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E63779-92DA-4034-86A7-CB38F07663FF}">
-  <dimension ref="B1:G19"/>
+  <dimension ref="B1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
     <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10768,19 +11236,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0.14099999999999999</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="D3" s="1">
         <v>0.23599999999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.34300000000000003</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="F3" s="1">
-        <v>0.46500000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="G3" s="2">
-        <v>0.56899999999999995</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11017,8 +11485,90 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
+    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="5">
+        <v>20000</v>
+      </c>
+      <c r="E21" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F21" s="5">
+        <v>40000</v>
+      </c>
+      <c r="G21" s="6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>231</v>
+      </c>
+      <c r="D22" s="1">
+        <v>967</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2149</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3851</v>
+      </c>
+      <c r="G22" s="2">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="5">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>231</v>
+      </c>
+      <c r="D23" s="1">
+        <v>967</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2149</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3851</v>
+      </c>
+      <c r="G23" s="2">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="7">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>231</v>
+      </c>
+      <c r="D24" s="3">
+        <v>967</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2149</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3851</v>
+      </c>
+      <c r="G24" s="4">
+        <v>6132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>